--- a/docs/SCRATCH應用競賽國小乙組動畫設計組決賽名冊.xlsx
+++ b/docs/SCRATCH應用競賽國小乙組動畫設計組決賽名冊.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="SCRATCH應用競賽國小乙組動畫設計組決賽名冊" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="126">
   <si>
     <t>序</t>
   </si>
@@ -45,223 +45,157 @@
     <t>SCRATCH應用競賽國小乙組動畫設計組</t>
   </si>
   <si>
-    <t>大甲區華龍國小</t>
-  </si>
-  <si>
-    <t>高至柔</t>
-  </si>
-  <si>
-    <t>李宗欣</t>
-  </si>
-  <si>
-    <t>dxb55y9</t>
-  </si>
-  <si>
-    <t>e84j6</t>
-  </si>
-  <si>
-    <t>劉佳欣</t>
-  </si>
-  <si>
-    <t>cdx44k8</t>
-  </si>
-  <si>
-    <t>etv58x4</t>
-  </si>
-  <si>
     <t>大肚區大忠國小</t>
   </si>
   <si>
-    <t>趙英如</t>
+    <t>何澤傑</t>
   </si>
   <si>
     <t>溫芝</t>
   </si>
   <si>
-    <t>et71t3</t>
-  </si>
-  <si>
-    <t>bj31v3</t>
-  </si>
-  <si>
-    <t>陳閔琪</t>
-  </si>
-  <si>
-    <t>anc18e4</t>
-  </si>
-  <si>
-    <t>x34cd6</t>
+    <t>rs69wh5</t>
+  </si>
+  <si>
+    <t>wh10v1</t>
+  </si>
+  <si>
+    <t>洪芷羚</t>
+  </si>
+  <si>
+    <t>fr52n7</t>
+  </si>
+  <si>
+    <t>e10t2</t>
+  </si>
+  <si>
+    <t>大肚區永順國小</t>
+  </si>
+  <si>
+    <t>鄭睿濠</t>
+  </si>
+  <si>
+    <t>許嘉芬</t>
+  </si>
+  <si>
+    <t>k55et7</t>
+  </si>
+  <si>
+    <t>kf73f3</t>
   </si>
   <si>
     <t>大肚區瑞井國小</t>
   </si>
   <si>
-    <t>連邱揚</t>
+    <t>吳睿東</t>
   </si>
   <si>
     <t>游美玲</t>
   </si>
   <si>
-    <t>rs87v3</t>
-  </si>
-  <si>
-    <t>et15y6</t>
-  </si>
-  <si>
-    <t>吳睿東</t>
-  </si>
-  <si>
-    <t>n46jk8</t>
-  </si>
-  <si>
-    <t>wh17g2</t>
-  </si>
-  <si>
-    <t>大肚區瑞峰國小</t>
-  </si>
-  <si>
-    <t>聶雨桐</t>
-  </si>
-  <si>
-    <t>莊啟宗</t>
-  </si>
-  <si>
-    <t>v53p3</t>
-  </si>
-  <si>
-    <t>j95a9</t>
-  </si>
-  <si>
-    <t>大里區內新國小</t>
-  </si>
-  <si>
-    <t>林新祐</t>
-  </si>
-  <si>
-    <t>饒立祥</t>
-  </si>
-  <si>
-    <t>pet48rs7</t>
-  </si>
-  <si>
-    <t>bjk53an5</t>
-  </si>
-  <si>
-    <t>大雅區上楓國小</t>
-  </si>
-  <si>
-    <t>林宏駿</t>
-  </si>
-  <si>
-    <t>林宏憲</t>
-  </si>
-  <si>
-    <t>y42h5</t>
-  </si>
-  <si>
-    <t>my97e3</t>
+    <t>dx26p1</t>
+  </si>
+  <si>
+    <t>tv80gw4</t>
+  </si>
+  <si>
+    <t>陳煦</t>
+  </si>
+  <si>
+    <t>myg22cd2</t>
+  </si>
+  <si>
+    <t>dx11y1</t>
+  </si>
+  <si>
+    <t>龔巧恩</t>
+  </si>
+  <si>
+    <t>v59d2</t>
+  </si>
+  <si>
+    <t>kf63wh6</t>
+  </si>
+  <si>
+    <t>大雅區汝鎏國小</t>
+  </si>
+  <si>
+    <t>莊心璦</t>
+  </si>
+  <si>
+    <t>顏慶璋</t>
+  </si>
+  <si>
+    <t>ncd84rs7</t>
+  </si>
+  <si>
+    <t>kf88et1</t>
+  </si>
+  <si>
+    <t>黃正升</t>
+  </si>
+  <si>
+    <t>tv75gw6</t>
+  </si>
+  <si>
+    <t>c53g6</t>
   </si>
   <si>
     <t>大雅區陽明國小</t>
   </si>
   <si>
-    <t>楊雁婷</t>
-  </si>
-  <si>
-    <t>李宜昆</t>
-  </si>
-  <si>
-    <t>ncd43k4</t>
-  </si>
-  <si>
-    <t>etv32t5</t>
-  </si>
-  <si>
-    <t>中區光復國小</t>
-  </si>
-  <si>
-    <t>黃語箴</t>
-  </si>
-  <si>
-    <t>顏慶琳</t>
-  </si>
-  <si>
-    <t>xbj7gw4</t>
-  </si>
-  <si>
-    <t>gwh61my6</t>
-  </si>
-  <si>
-    <t>謝秉澈</t>
-  </si>
-  <si>
-    <t>my5k8</t>
-  </si>
-  <si>
-    <t>s30w1</t>
+    <t>陳昀彤</t>
+  </si>
+  <si>
+    <t>王新唯</t>
+  </si>
+  <si>
+    <t>myg60et8</t>
+  </si>
+  <si>
+    <t>ygw20sm2</t>
+  </si>
+  <si>
+    <t>林宛臻</t>
+  </si>
+  <si>
+    <t>rs72c3</t>
+  </si>
+  <si>
+    <t>bj61wh2</t>
   </si>
   <si>
     <t>太平區坪林國小</t>
   </si>
   <si>
-    <t>洪閔捷</t>
+    <t>陳詠樺</t>
   </si>
   <si>
     <t>陳永陸</t>
   </si>
   <si>
-    <t>wh26g2</t>
-  </si>
-  <si>
-    <t>dxb85m1</t>
-  </si>
-  <si>
-    <t>梁育甄</t>
-  </si>
-  <si>
-    <t>bj4g1</t>
-  </si>
-  <si>
-    <t>bjk61fr4</t>
-  </si>
-  <si>
-    <t>北屯區明道普霖斯頓小學</t>
-  </si>
-  <si>
-    <t>洪銘浩</t>
-  </si>
-  <si>
-    <t>劉振維</t>
-  </si>
-  <si>
-    <t>pe55w6</t>
-  </si>
-  <si>
-    <t>gw88pe5</t>
-  </si>
-  <si>
-    <t>北屯區新興國小</t>
-  </si>
-  <si>
-    <t>蕭翊均</t>
-  </si>
-  <si>
-    <t>張瑞堅</t>
-  </si>
-  <si>
-    <t>fr64x7</t>
-  </si>
-  <si>
-    <t>v33bj7</t>
-  </si>
-  <si>
-    <t>林威鋕</t>
-  </si>
-  <si>
-    <t>xb74w2</t>
-  </si>
-  <si>
-    <t>b51rs8</t>
+    <t>kf19tv3</t>
+  </si>
+  <si>
+    <t>xbj99n2</t>
+  </si>
+  <si>
+    <t>林依承</t>
+  </si>
+  <si>
+    <t>kf77an6</t>
+  </si>
+  <si>
+    <t>b61dx6</t>
+  </si>
+  <si>
+    <t>石喬予</t>
+  </si>
+  <si>
+    <t>f28t7</t>
+  </si>
+  <si>
+    <t>whp67pe7</t>
   </si>
   <si>
     <t>北區太平國小</t>
@@ -273,382 +207,196 @@
     <t>劉安哲</t>
   </si>
   <si>
-    <t>dx15s4</t>
-  </si>
-  <si>
-    <t>et85my8</t>
-  </si>
-  <si>
-    <t>北區育仁小學</t>
-  </si>
-  <si>
-    <t>江心妍</t>
-  </si>
-  <si>
-    <t>劉佳瀅</t>
-  </si>
-  <si>
-    <t>j44my5</t>
-  </si>
-  <si>
-    <t>v67cd2</t>
-  </si>
-  <si>
-    <t>林思妤</t>
-  </si>
-  <si>
-    <t>v31et5</t>
-  </si>
-  <si>
-    <t>pe54hp4</t>
-  </si>
-  <si>
-    <t>李耘寬</t>
-  </si>
-  <si>
-    <t>ygw47d4</t>
-  </si>
-  <si>
-    <t>sm94m8</t>
-  </si>
-  <si>
-    <t>林歆瑀</t>
-  </si>
-  <si>
-    <t>k92fr3</t>
-  </si>
-  <si>
-    <t>cdx11b5</t>
-  </si>
-  <si>
-    <t>北區臺中教大實小</t>
-  </si>
-  <si>
-    <t>黃宇綸</t>
-  </si>
-  <si>
-    <t>林裕集</t>
-  </si>
-  <si>
-    <t>fr45d7</t>
-  </si>
-  <si>
-    <t>smy8d2</t>
-  </si>
-  <si>
-    <t>吳智歆</t>
-  </si>
-  <si>
-    <t>nc32y8</t>
-  </si>
-  <si>
-    <t>myg15wh1</t>
-  </si>
-  <si>
-    <t>北區篤行國小</t>
-  </si>
-  <si>
-    <t>許喬甯</t>
-  </si>
-  <si>
-    <t>呂健聰</t>
-  </si>
-  <si>
-    <t>et27fr4</t>
-  </si>
-  <si>
-    <t>cd41x4</t>
-  </si>
-  <si>
-    <t>吳其安</t>
-  </si>
-  <si>
-    <t>pe78cd8</t>
-  </si>
-  <si>
-    <t>r66y7</t>
+    <t>e90t8</t>
+  </si>
+  <si>
+    <t>gwh42pe7</t>
   </si>
   <si>
     <t>石岡區石岡國小</t>
   </si>
   <si>
-    <t>鄧欣彗</t>
+    <t>羅房佑</t>
   </si>
   <si>
     <t>洪宗岳</t>
   </si>
   <si>
-    <t>cd55sm4</t>
-  </si>
-  <si>
-    <t>rsm47wh5</t>
+    <t>jk10h1</t>
+  </si>
+  <si>
+    <t>myg49y1</t>
+  </si>
+  <si>
+    <t>后里區七星國小</t>
+  </si>
+  <si>
+    <t>張少宥</t>
+  </si>
+  <si>
+    <t>胡安寧</t>
+  </si>
+  <si>
+    <t>my42my7</t>
+  </si>
+  <si>
+    <t>y55g8</t>
   </si>
   <si>
     <t>后里區月眉國小</t>
   </si>
   <si>
-    <t>曾文韜</t>
-  </si>
-  <si>
-    <t>蔡育倫</t>
-  </si>
-  <si>
-    <t>wh19p4</t>
-  </si>
-  <si>
-    <t>pe55hp9</t>
-  </si>
-  <si>
-    <t>王奕婷</t>
-  </si>
-  <si>
-    <t>cdx23b6</t>
-  </si>
-  <si>
-    <t>xb40hp1</t>
-  </si>
-  <si>
-    <t>張雅倩</t>
-  </si>
-  <si>
-    <t>hp37wh6</t>
-  </si>
-  <si>
-    <t>e10et7</t>
-  </si>
-  <si>
-    <t>白家慈</t>
-  </si>
-  <si>
-    <t>yg95n5</t>
-  </si>
-  <si>
-    <t>dxb48nc6</t>
-  </si>
-  <si>
-    <t>西屯區何厝國小</t>
-  </si>
-  <si>
-    <t>林育瑋</t>
-  </si>
-  <si>
-    <t>陳勝裕</t>
-  </si>
-  <si>
-    <t>jk70dx2</t>
-  </si>
-  <si>
-    <t>gw46tv7</t>
-  </si>
-  <si>
-    <t>何軒凱</t>
-  </si>
-  <si>
-    <t>myg69yg8</t>
-  </si>
-  <si>
-    <t>fr64x6</t>
-  </si>
-  <si>
-    <t>劉哲瑋</t>
-  </si>
-  <si>
-    <t>ygw58r1</t>
-  </si>
-  <si>
-    <t>r21wh5</t>
+    <t>張芷瑄</t>
+  </si>
+  <si>
+    <t>趙姿婷</t>
+  </si>
+  <si>
+    <t>jk87b4</t>
+  </si>
+  <si>
+    <t>j11et8</t>
+  </si>
+  <si>
+    <t>羅彥翔</t>
+  </si>
+  <si>
+    <t>sm35d3</t>
+  </si>
+  <si>
+    <t>dx66x6</t>
+  </si>
+  <si>
+    <t>陳儒楹</t>
+  </si>
+  <si>
+    <t>b36y1</t>
+  </si>
+  <si>
+    <t>fr7sm2</t>
+  </si>
+  <si>
+    <t>徐依珊</t>
+  </si>
+  <si>
+    <t>tv3bj6</t>
+  </si>
+  <si>
+    <t>hpe8v3</t>
+  </si>
+  <si>
+    <t>西屯區大仁國小</t>
+  </si>
+  <si>
+    <t>王歆絜</t>
+  </si>
+  <si>
+    <t>徐連政</t>
+  </si>
+  <si>
+    <t>gw31c2</t>
+  </si>
+  <si>
+    <t>rsm30xb7</t>
+  </si>
+  <si>
+    <t>蘇容可</t>
+  </si>
+  <si>
+    <t>hpe51x9</t>
+  </si>
+  <si>
+    <t>xbj23dx3</t>
   </si>
   <si>
     <t>西屯區重慶國小</t>
   </si>
   <si>
-    <t>蘇怡蓁</t>
-  </si>
-  <si>
-    <t>楊晟汶</t>
-  </si>
-  <si>
-    <t>sm14kf5</t>
-  </si>
-  <si>
-    <t>bj96rs7</t>
+    <t>魯敬薇</t>
+  </si>
+  <si>
+    <t>歐陽國和</t>
+  </si>
+  <si>
+    <t>gwh98fr6</t>
+  </si>
+  <si>
+    <t>t63tv2</t>
   </si>
   <si>
     <t>康芯綾</t>
   </si>
   <si>
-    <t>jkf89sm5</t>
-  </si>
-  <si>
-    <t>b78k2</t>
+    <t>nc17fr5</t>
+  </si>
+  <si>
+    <t>s20n7</t>
   </si>
   <si>
     <t>西區忠信國小</t>
   </si>
   <si>
-    <t>許如玉</t>
-  </si>
-  <si>
-    <t>黃偵惠</t>
-  </si>
-  <si>
-    <t>nc25hp4</t>
-  </si>
-  <si>
-    <t>rsm16jk3</t>
-  </si>
-  <si>
-    <t>陳禹潔</t>
-  </si>
-  <si>
-    <t>an57v2</t>
-  </si>
-  <si>
-    <t>rs6e5</t>
-  </si>
-  <si>
-    <t>何睿庭</t>
-  </si>
-  <si>
-    <t>sm78bj3</t>
-  </si>
-  <si>
-    <t>wh7g7</t>
-  </si>
-  <si>
-    <t>沙鹿區文光國小</t>
-  </si>
-  <si>
-    <t>林鈺城</t>
-  </si>
-  <si>
-    <t>卓錫斌</t>
-  </si>
-  <si>
-    <t>ygw5c7</t>
-  </si>
-  <si>
-    <t>n73sm3</t>
-  </si>
-  <si>
-    <t>張毓庭</t>
-  </si>
-  <si>
-    <t>jk73xb4</t>
-  </si>
-  <si>
-    <t>kfr19s4</t>
-  </si>
-  <si>
-    <t>陳鈺婷</t>
-  </si>
-  <si>
-    <t>tv74an8</t>
-  </si>
-  <si>
-    <t>r94fr4</t>
-  </si>
-  <si>
-    <t>神岡區神岡國小</t>
-  </si>
-  <si>
-    <t>彭熙云</t>
-  </si>
-  <si>
-    <t>林奎光</t>
-  </si>
-  <si>
-    <t>my88et5</t>
-  </si>
-  <si>
-    <t>gwh14rs6</t>
-  </si>
-  <si>
-    <t>王育信</t>
-  </si>
-  <si>
-    <t>xb66j8</t>
-  </si>
-  <si>
-    <t>pe72c3</t>
-  </si>
-  <si>
-    <t>清水區西寧國小</t>
-  </si>
-  <si>
-    <t>蔡佳妤</t>
-  </si>
-  <si>
-    <t>丁浩展</t>
-  </si>
-  <si>
-    <t>s26yg4</t>
-  </si>
-  <si>
-    <t>fr21bj6</t>
-  </si>
-  <si>
-    <t>李秀菁</t>
-  </si>
-  <si>
-    <t>sm75m8</t>
-  </si>
-  <si>
-    <t>frs46h2</t>
-  </si>
-  <si>
-    <t>清水區槺榔國小</t>
-  </si>
-  <si>
-    <t>傅梓翔</t>
-  </si>
-  <si>
-    <t>楊騏駸</t>
-  </si>
-  <si>
-    <t>a65my7</t>
-  </si>
-  <si>
-    <t>rs80nc6</t>
-  </si>
-  <si>
-    <t>陳昱佑</t>
-  </si>
-  <si>
-    <t>frs53h8</t>
-  </si>
-  <si>
-    <t>rs44n7</t>
-  </si>
-  <si>
-    <t>豐原區福陽國小</t>
-  </si>
-  <si>
-    <t>張育豪</t>
-  </si>
-  <si>
-    <t>何姍庭</t>
-  </si>
-  <si>
-    <t>nc14n3</t>
-  </si>
-  <si>
-    <t>d98bj6</t>
-  </si>
-  <si>
-    <t>豐原區豐原國小</t>
-  </si>
-  <si>
-    <t>吳宥均</t>
-  </si>
-  <si>
-    <t>陳信雄</t>
-  </si>
-  <si>
-    <t>bjk50v6</t>
-  </si>
-  <si>
-    <t>jkf37f8</t>
+    <t>蘇聿淇</t>
+  </si>
+  <si>
+    <t>鄭定華</t>
+  </si>
+  <si>
+    <t>x71c2</t>
+  </si>
+  <si>
+    <t>smy31y8</t>
+  </si>
+  <si>
+    <t>劉安祈</t>
+  </si>
+  <si>
+    <t>rs11n5</t>
+  </si>
+  <si>
+    <t>pet22f3</t>
+  </si>
+  <si>
+    <t>洪欣汝</t>
+  </si>
+  <si>
+    <t>r29jk3</t>
+  </si>
+  <si>
+    <t>gw40f4</t>
+  </si>
+  <si>
+    <t>陳姸伊</t>
+  </si>
+  <si>
+    <t>pe69rs5</t>
+  </si>
+  <si>
+    <t>hpe16dx8</t>
+  </si>
+  <si>
+    <t>龍井區龍山國小</t>
+  </si>
+  <si>
+    <t>劉佳昕</t>
+  </si>
+  <si>
+    <t>林鎮平</t>
+  </si>
+  <si>
+    <t>hp51an3</t>
+  </si>
+  <si>
+    <t>cd44b6</t>
+  </si>
+  <si>
+    <t>郭耘羽</t>
+  </si>
+  <si>
+    <t>y11wh1</t>
+  </si>
+  <si>
+    <t>c2hp8</t>
   </si>
 </sst>
 </file>
@@ -1642,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,11 +1398,11 @@
   <cols>
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1757,19 +1505,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1780,13 +1528,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
@@ -1803,13 +1551,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>30</v>
@@ -1849,19 +1597,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1872,19 +1620,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1895,19 +1643,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1918,19 +1666,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1941,19 +1689,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="G13" s="8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1964,19 +1712,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1987,19 +1735,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="E15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>66</v>
-      </c>
       <c r="G15" s="8" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2010,19 +1758,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2033,19 +1781,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2056,19 +1804,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2079,19 +1827,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2102,19 +1850,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2125,19 +1873,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="G21" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2148,19 +1896,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2171,19 +1919,19 @@
         <v>7</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2194,19 +1942,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2217,19 +1965,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="G25" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2240,19 +1988,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2263,19 +2011,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>114</v>
-      </c>
       <c r="G27" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2286,19 +2034,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2309,19 +2057,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2332,19 +2080,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="G30" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2355,483 +2103,24 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>